--- a/Currencies/currencies_2022_12_10.xlsx
+++ b/Currencies/currencies_2022_12_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>symbol</t>
   </si>
@@ -169,142 +169,139 @@
     <t>USD/RUB</t>
   </si>
   <si>
-    <t>1.0535</t>
-  </si>
-  <si>
-    <t>136.6280</t>
-  </si>
-  <si>
-    <t>1.2258</t>
-  </si>
-  <si>
-    <t>0.6795</t>
+    <t>1.0539</t>
+  </si>
+  <si>
+    <t>136.5100</t>
+  </si>
+  <si>
+    <t>1.2266</t>
+  </si>
+  <si>
+    <t>0.6799</t>
   </si>
   <si>
     <t>0.6416</t>
   </si>
   <si>
-    <t>143.9090</t>
-  </si>
-  <si>
-    <t>167.4650</t>
-  </si>
-  <si>
-    <t>0.8592</t>
-  </si>
-  <si>
-    <t>1.4373</t>
-  </si>
-  <si>
-    <t>10.8780</t>
+    <t>143.8370</t>
+  </si>
+  <si>
+    <t>167.4690</t>
+  </si>
+  <si>
+    <t>0.8589</t>
+  </si>
+  <si>
+    <t>1.4368</t>
+  </si>
+  <si>
+    <t>10.8852</t>
   </si>
   <si>
     <t>0.9843</t>
   </si>
   <si>
-    <t>418.3700</t>
+    <t>418.3000</t>
   </si>
   <si>
     <t>6.9559</t>
   </si>
   <si>
-    <t>7.7865</t>
-  </si>
-  <si>
-    <t>1.3527</t>
+    <t>7.7854</t>
+  </si>
+  <si>
+    <t>1.3538</t>
   </si>
   <si>
     <t>82.4630</t>
   </si>
   <si>
-    <t>19.7758</t>
-  </si>
-  <si>
-    <t>55.3500</t>
-  </si>
-  <si>
-    <t>15581.0000</t>
-  </si>
-  <si>
-    <t>34.7200</t>
-  </si>
-  <si>
-    <t>4.4010</t>
-  </si>
-  <si>
-    <t>17.3664</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>-0.0024</t>
-  </si>
-  <si>
-    <t>-0.0020</t>
-  </si>
-  <si>
-    <t>0.0020</t>
-  </si>
-  <si>
-    <t>0.0019</t>
+    <t>19.7605</t>
+  </si>
+  <si>
+    <t>55.3600</t>
+  </si>
+  <si>
+    <t>15582.0000</t>
+  </si>
+  <si>
+    <t>34.6750</t>
+  </si>
+  <si>
+    <t>4.4013</t>
+  </si>
+  <si>
+    <t>17.3391</t>
+  </si>
+  <si>
+    <t>62.6470</t>
+  </si>
+  <si>
+    <t>-0.0021</t>
+  </si>
+  <si>
+    <t>-0.1200</t>
+  </si>
+  <si>
+    <t>0.0028</t>
+  </si>
+  <si>
+    <t>0.0023</t>
   </si>
   <si>
     <t>0.0036</t>
   </si>
   <si>
-    <t>-0.3300</t>
-  </si>
-  <si>
-    <t>0.3140</t>
-  </si>
-  <si>
-    <t>-0.0033</t>
-  </si>
-  <si>
-    <t>0.0028</t>
-  </si>
-  <si>
-    <t>-0.0230</t>
+    <t>-0.4020</t>
+  </si>
+  <si>
+    <t>0.3180</t>
+  </si>
+  <si>
+    <t>-0.0037</t>
+  </si>
+  <si>
+    <t>-0.0159</t>
   </si>
   <si>
     <t>-0.0041</t>
   </si>
   <si>
-    <t>1.1000</t>
+    <t>1.0300</t>
   </si>
   <si>
     <t>-0.0090</t>
   </si>
   <si>
-    <t>0.0003</t>
-  </si>
-  <si>
-    <t>-0.0014</t>
+    <t>-0.0008</t>
+  </si>
+  <si>
+    <t>-0.0004</t>
   </si>
   <si>
     <t>0.1820</t>
   </si>
   <si>
-    <t>0.1518</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>-38.0000</t>
-  </si>
-  <si>
-    <t>0.0300</t>
-  </si>
-  <si>
-    <t>0.0060</t>
-  </si>
-  <si>
-    <t>0.2182</t>
-  </si>
-  <si>
-    <t>0.1000</t>
+    <t>0.1366</t>
+  </si>
+  <si>
+    <t>0.0100</t>
+  </si>
+  <si>
+    <t>-37.0000</t>
+  </si>
+  <si>
+    <t>-0.0150</t>
+  </si>
+  <si>
+    <t>0.0063</t>
+  </si>
+  <si>
+    <t>0.1909</t>
+  </si>
+  <si>
+    <t>0.2470</t>
   </si>
 </sst>
 </file>
@@ -699,7 +696,7 @@
         <v>74</v>
       </c>
       <c r="E2">
-        <v>-0.23</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -716,7 +713,7 @@
         <v>75</v>
       </c>
       <c r="E3">
-        <v>-0</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -733,7 +730,7 @@
         <v>76</v>
       </c>
       <c r="E4">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -750,7 +747,7 @@
         <v>77</v>
       </c>
       <c r="E5">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -784,7 +781,7 @@
         <v>79</v>
       </c>
       <c r="E7">
-        <v>-0.23</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -818,7 +815,7 @@
         <v>81</v>
       </c>
       <c r="E9">
-        <v>-0.38</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -832,10 +829,10 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E10">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -849,10 +846,10 @@
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11">
-        <v>-0.21</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -866,10 +863,10 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -883,10 +880,10 @@
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -903,7 +900,7 @@
         <v>79</v>
       </c>
       <c r="E14">
-        <v>-0.23</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -917,7 +914,7 @@
         <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>-0.13</v>
@@ -934,10 +931,10 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -951,10 +948,10 @@
         <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17">
-        <v>-0.1</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -968,7 +965,7 @@
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <v>0.22</v>
@@ -985,10 +982,10 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1002,10 +999,10 @@
         <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1019,7 +1016,7 @@
         <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <v>-0.24</v>
@@ -1036,10 +1033,10 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22">
-        <v>0.09</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1053,7 +1050,7 @@
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <v>0.14</v>
@@ -1070,10 +1067,10 @@
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1087,10 +1084,10 @@
         <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
